--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0727EEA-FE5F-4FB0-9F4B-B75AAF6CFFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{359348AB-20AA-4AC0-BFAC-947953B2C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{232B7859-87D5-43CE-84F3-8E7A26420B47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95734ACD-7C56-4EEE-9151-CBD8C5F677D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
   <si>
     <t>Clase social manual de la persona con más ingresos del hogar (clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,742 +74,733 @@
     <t>2,34%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>No ha trabajado</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>No ha trabajado</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>53,92%</t>
   </si>
   <si>
     <t>50,41%</t>
   </si>
   <si>
-    <t>51,87%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1224,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AEA74-3D93-4642-BC10-E621B1FA5CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39427853-A038-410B-AA2B-36FA39DAAF56}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1689,10 +1680,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1698,13 @@
         <v>196778</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>184</v>
@@ -1722,13 +1713,13 @@
         <v>205448</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>310</v>
@@ -1737,13 +1728,13 @@
         <v>402225</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1749,13 @@
         <v>217096</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -1773,13 +1764,13 @@
         <v>271490</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -1788,13 +1779,13 @@
         <v>488586</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1841,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1862,13 +1853,13 @@
         <v>2940</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1877,13 +1868,13 @@
         <v>11879</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1892,13 +1883,13 @@
         <v>14819</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1904,13 @@
         <v>5222</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -1928,13 +1919,13 @@
         <v>29865</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -1943,13 +1934,13 @@
         <v>35087</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1955,13 @@
         <v>286812</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>373</v>
@@ -1979,13 +1970,13 @@
         <v>265900</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>635</v>
@@ -1994,13 +1985,13 @@
         <v>552713</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2006,13 @@
         <v>262277</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -2030,13 +2021,13 @@
         <v>302803</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>725</v>
@@ -2045,13 +2036,13 @@
         <v>565080</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,7 +2098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,13 +2110,13 @@
         <v>14537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2134,13 +2125,13 @@
         <v>15130</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -2149,13 +2140,13 @@
         <v>29667</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2161,13 @@
         <v>7235</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2185,13 +2176,13 @@
         <v>20161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -2200,13 +2191,13 @@
         <v>27395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2212,13 @@
         <v>388520</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>503</v>
@@ -2236,28 +2227,28 @@
         <v>331496</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>833</v>
       </c>
       <c r="N21" s="7">
-        <v>720017</v>
+        <v>720016</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2263,13 @@
         <v>313698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -2287,28 +2278,28 @@
         <v>380474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>895</v>
       </c>
       <c r="N22" s="7">
-        <v>694173</v>
+        <v>694172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2341,7 @@
         <v>1806</v>
       </c>
       <c r="N23" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2364,7 +2355,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2376,13 +2367,13 @@
         <v>11678</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -2391,13 +2382,13 @@
         <v>17159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -2406,13 +2397,13 @@
         <v>28836</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2418,13 @@
         <v>2482</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -2442,13 +2433,13 @@
         <v>14841</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -2457,13 +2448,13 @@
         <v>17323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2469,13 @@
         <v>282079</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>383</v>
@@ -2493,13 +2484,13 @@
         <v>227364</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>690</v>
@@ -2508,13 +2499,13 @@
         <v>509443</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2520,13 @@
         <v>303918</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>567</v>
@@ -2544,13 +2535,13 @@
         <v>337700</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>908</v>
@@ -2559,13 +2550,13 @@
         <v>641618</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2612,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2624,13 @@
         <v>10333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -2648,13 +2639,13 @@
         <v>32502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -2663,13 +2654,13 @@
         <v>42835</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2675,13 @@
         <v>4883</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>140</v>
@@ -2699,13 +2690,13 @@
         <v>83076</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>148</v>
@@ -2714,13 +2705,13 @@
         <v>87959</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,16 +2723,16 @@
         <v>486</v>
       </c>
       <c r="D31" s="7">
-        <v>329878</v>
+        <v>329879</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>542</v>
@@ -2750,13 +2741,13 @@
         <v>412047</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>1028</v>
@@ -2765,13 +2756,13 @@
         <v>741926</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2777,13 @@
         <v>352660</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>967</v>
@@ -2801,13 +2792,13 @@
         <v>499012</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1485</v>
@@ -2816,13 +2807,13 @@
         <v>851672</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2825,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2890,13 +2881,13 @@
         <v>57861</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>148</v>
@@ -2905,13 +2896,13 @@
         <v>99145</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>206</v>
@@ -2920,13 +2911,13 @@
         <v>157006</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2932,13 @@
         <v>37558</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>223</v>
@@ -2956,13 +2947,13 @@
         <v>181061</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>257</v>
@@ -2971,13 +2962,13 @@
         <v>218619</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2983,13 @@
         <v>1631363</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>2061</v>
@@ -3007,28 +2998,28 @@
         <v>1573647</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>3635</v>
       </c>
       <c r="N36" s="7">
-        <v>3205010</v>
+        <v>3205009</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3034,13 @@
         <v>1658446</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>2935</v>
@@ -3058,13 +3049,13 @@
         <v>1981728</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>4645</v>
@@ -3073,13 +3064,13 @@
         <v>3640174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3112,7 @@
         <v>8743</v>
       </c>
       <c r="N38" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3135,7 +3126,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359348AB-20AA-4AC0-BFAC-947953B2C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC6FE97-6EA9-4E76-A8D3-EBC16A8AFCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95734ACD-7C56-4EEE-9151-CBD8C5F677D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31631A22-BB73-4977-98B6-89FF4B1861A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39427853-A038-410B-AA2B-36FA39DAAF56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CFE841-8831-4CFF-A061-8E047A46C4AB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
